--- a/Divisao_EUA.xlsx
+++ b/Divisao_EUA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\igorm\Desktop\FGV\4º Semestre\07 - Banco de Dados\Trabalho A2\USA_Flights_Graphs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2E205DBB-F1EB-40BB-99C2-31AC3862E89E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4380CAEF-2A7B-4B5A-BBC6-D78F9ABAC504}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{294999EC-61D4-4DB0-B504-6249677FDDDA}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="107">
   <si>
     <t>Estado</t>
   </si>
@@ -360,16 +360,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -399,7 +391,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -714,9 +706,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68004D20-8BDC-4C15-8385-2767194F5CFF}">
-  <dimension ref="A1:C52"/>
+  <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -859,10 +853,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>79</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>13</v>
+        <v>90</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
       </c>
       <c r="C13" t="s">
         <v>19</v>
@@ -870,10 +864,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C14" t="s">
         <v>19</v>
@@ -881,10 +875,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C15" t="s">
         <v>19</v>
@@ -892,10 +886,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C16" t="s">
         <v>19</v>
@@ -903,10 +897,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C17" t="s">
         <v>19</v>
@@ -914,21 +908,21 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C19" t="s">
         <v>20</v>
@@ -936,10 +930,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C20" t="s">
         <v>20</v>
@@ -947,10 +941,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
         <v>20</v>
@@ -958,10 +952,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
         <v>20</v>
@@ -969,10 +963,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
         <v>20</v>
@@ -980,10 +974,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C24" t="s">
         <v>20</v>
@@ -991,10 +985,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C25" t="s">
         <v>20</v>
@@ -1002,10 +996,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>78</v>
-      </c>
-      <c r="B26" t="s">
-        <v>28</v>
+        <v>79</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="C26" t="s">
         <v>20</v>
@@ -1013,10 +1007,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>79</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>13</v>
+        <v>84</v>
+      </c>
+      <c r="B27" t="s">
+        <v>29</v>
       </c>
       <c r="C27" t="s">
         <v>20</v>
@@ -1024,10 +1018,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B28" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C28" t="s">
         <v>20</v>
@@ -1035,10 +1029,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="B29" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C29" t="s">
         <v>20</v>
@@ -1046,21 +1040,21 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B30" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C30" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="B31" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C31" t="s">
         <v>33</v>
@@ -1068,10 +1062,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C32" t="s">
         <v>33</v>
@@ -1079,10 +1073,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="B33" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C33" t="s">
         <v>33</v>
@@ -1090,10 +1084,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="B34" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C34" t="s">
         <v>33</v>
@@ -1101,10 +1095,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="B35" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C35" t="s">
         <v>33</v>
@@ -1112,10 +1106,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="B36" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C36" t="s">
         <v>33</v>
@@ -1123,10 +1117,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="B37" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C37" t="s">
         <v>33</v>
@@ -1134,10 +1128,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="B38" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C38" t="s">
         <v>33</v>
@@ -1145,21 +1139,21 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>100</v>
+        <v>59</v>
       </c>
       <c r="B39" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C39" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B40" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C40" t="s">
         <v>53</v>
@@ -1167,10 +1161,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B41" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C41" t="s">
         <v>53</v>
@@ -1178,10 +1172,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="B42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C42" t="s">
         <v>53</v>
@@ -1189,10 +1183,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="B43" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C43" t="s">
         <v>53</v>
@@ -1200,10 +1194,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C44" t="s">
         <v>53</v>
@@ -1211,10 +1205,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C45" t="s">
         <v>53</v>
@@ -1222,10 +1216,10 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B46" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C46" t="s">
         <v>53</v>
@@ -1233,10 +1227,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="B47" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C47" t="s">
         <v>53</v>
@@ -1244,10 +1238,10 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B48" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C48" t="s">
         <v>53</v>
@@ -1255,10 +1249,10 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B49" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C49" t="s">
         <v>53</v>
@@ -1266,10 +1260,10 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>104</v>
+        <v>56</v>
       </c>
       <c r="B50" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C50" t="s">
         <v>53</v>
@@ -1277,23 +1271,12 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="B51" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C51" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>66</v>
-      </c>
-      <c r="B52" t="s">
-        <v>55</v>
-      </c>
-      <c r="C52" t="s">
         <v>53</v>
       </c>
     </row>

--- a/Divisao_EUA.xlsx
+++ b/Divisao_EUA.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\igorm\Desktop\FGV\4º Semestre\07 - Banco de Dados\Trabalho A2\USA_Flights_Graphs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4380CAEF-2A7B-4B5A-BBC6-D78F9ABAC504}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E171DA7-FEAC-4C7F-BE60-BE3F5BEC7966}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{294999EC-61D4-4DB0-B504-6249677FDDDA}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="2" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -33,175 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="107">
-  <si>
-    <t>Estado</t>
-  </si>
-  <si>
-    <t>Região</t>
-  </si>
-  <si>
-    <t>Alabama</t>
-  </si>
-  <si>
-    <t>Arkansas</t>
-  </si>
-  <si>
-    <t>Carolina do Norte</t>
-  </si>
-  <si>
-    <t>Flórida</t>
-  </si>
-  <si>
-    <t>Carolina do Sul</t>
-  </si>
-  <si>
-    <t>Geórgia</t>
-  </si>
-  <si>
-    <t>Kentucky</t>
-  </si>
-  <si>
-    <t>Delaware</t>
-  </si>
-  <si>
-    <t>Lousiana</t>
-  </si>
-  <si>
-    <t>Maryland</t>
-  </si>
-  <si>
-    <t>Mississippi</t>
-  </si>
-  <si>
-    <t>Missouri</t>
-  </si>
-  <si>
-    <t>Oklahoma</t>
-  </si>
-  <si>
-    <t>Tennessee</t>
-  </si>
-  <si>
-    <t>Texas</t>
-  </si>
-  <si>
-    <t>Virgínia</t>
-  </si>
-  <si>
-    <t>Virgínia Ocidental</t>
-  </si>
-  <si>
-    <t>Sul</t>
-  </si>
-  <si>
-    <t>Centro-Oeste</t>
-  </si>
-  <si>
-    <t>Dakota do Norte</t>
-  </si>
-  <si>
-    <t>Dakota do Sul</t>
-  </si>
-  <si>
-    <t>Illinois</t>
-  </si>
-  <si>
-    <t>Indiana</t>
-  </si>
-  <si>
-    <t>Iowa</t>
-  </si>
-  <si>
-    <t>Kansas</t>
-  </si>
-  <si>
-    <t>Michigan</t>
-  </si>
-  <si>
-    <t>Minnesota</t>
-  </si>
-  <si>
-    <t>Nebraska</t>
-  </si>
-  <si>
-    <t>Ohio</t>
-  </si>
-  <si>
-    <t>Wisconsin</t>
-  </si>
-  <si>
-    <t>Nova Iorque</t>
-  </si>
-  <si>
-    <t>Norte</t>
-  </si>
-  <si>
-    <t>Pensilvânia</t>
-  </si>
-  <si>
-    <t>Nova Jérsei</t>
-  </si>
-  <si>
-    <t>Massachusetts</t>
-  </si>
-  <si>
-    <t>Connecticut</t>
-  </si>
-  <si>
-    <t>New Hampshire</t>
-  </si>
-  <si>
-    <t>Maine</t>
-  </si>
-  <si>
-    <t>Rhode Island</t>
-  </si>
-  <si>
-    <t>Vermont</t>
-  </si>
-  <si>
-    <t>Arizona</t>
-  </si>
-  <si>
-    <t>Califórnia</t>
-  </si>
-  <si>
-    <t>Colorado</t>
-  </si>
-  <si>
-    <t>Idaho</t>
-  </si>
-  <si>
-    <t>Montana</t>
-  </si>
-  <si>
-    <t>Novo México</t>
-  </si>
-  <si>
-    <t>Nevada</t>
-  </si>
-  <si>
-    <t>Oregon</t>
-  </si>
-  <si>
-    <t>Utah</t>
-  </si>
-  <si>
-    <t>Washington</t>
-  </si>
-  <si>
-    <t>Wyoming</t>
-  </si>
-  <si>
-    <t>Oeste</t>
-  </si>
-  <si>
-    <t>Alaska</t>
-  </si>
-  <si>
-    <t>Havaí</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="57">
   <si>
     <t>AK</t>
   </si>
@@ -353,7 +188,25 @@
     <t>Id</t>
   </si>
   <si>
-    <t>Ny</t>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>NY</t>
+  </si>
+  <si>
+    <t>SOUTH</t>
+  </si>
+  <si>
+    <t>MIDWEST</t>
+  </si>
+  <si>
+    <t>NORTH</t>
+  </si>
+  <si>
+    <t>WEST</t>
   </si>
 </sst>
 </file>
@@ -389,9 +242,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -407,6 +259,460 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="states-final"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>abbrev</v>
+          </cell>
+          <cell r="B1" t="str">
+            <v>name</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>AK</v>
+          </cell>
+          <cell r="B2" t="str">
+            <v>ALASKA</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>AL</v>
+          </cell>
+          <cell r="B3" t="str">
+            <v>ALABAMA</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>AR</v>
+          </cell>
+          <cell r="B4" t="str">
+            <v>ARKANSAS</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>AZ</v>
+          </cell>
+          <cell r="B5" t="str">
+            <v>ARIZONA</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>CA</v>
+          </cell>
+          <cell r="B6" t="str">
+            <v>CALIFORNIA</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>CO</v>
+          </cell>
+          <cell r="B7" t="str">
+            <v>COLORADO</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>CT</v>
+          </cell>
+          <cell r="B8" t="str">
+            <v>CONNECTICUT</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>DC</v>
+          </cell>
+          <cell r="B9" t="str">
+            <v>DISTRICT OF COLUMBIA</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v>DE</v>
+          </cell>
+          <cell r="B10" t="str">
+            <v>DELAWARE</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11" t="str">
+            <v>FL</v>
+          </cell>
+          <cell r="B11" t="str">
+            <v>FLORIDA</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12" t="str">
+            <v>GA</v>
+          </cell>
+          <cell r="B12" t="str">
+            <v>GEORGIA</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13" t="str">
+            <v>HI</v>
+          </cell>
+          <cell r="B13" t="str">
+            <v>HAWAII</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14" t="str">
+            <v>IA</v>
+          </cell>
+          <cell r="B14" t="str">
+            <v>IOWA</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15" t="str">
+            <v>ID</v>
+          </cell>
+          <cell r="B15" t="str">
+            <v>IDAHO</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16" t="str">
+            <v>IL</v>
+          </cell>
+          <cell r="B16" t="str">
+            <v>ILLINOIS</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17" t="str">
+            <v>IN</v>
+          </cell>
+          <cell r="B17" t="str">
+            <v>INDIANA</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18" t="str">
+            <v>KS</v>
+          </cell>
+          <cell r="B18" t="str">
+            <v>KANSAS</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19" t="str">
+            <v>KY</v>
+          </cell>
+          <cell r="B19" t="str">
+            <v>KENTUCKY</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20" t="str">
+            <v>LA</v>
+          </cell>
+          <cell r="B20" t="str">
+            <v>LOUISIANA</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21" t="str">
+            <v>MA</v>
+          </cell>
+          <cell r="B21" t="str">
+            <v>MASSACHUSETTS</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22" t="str">
+            <v>MD</v>
+          </cell>
+          <cell r="B22" t="str">
+            <v>MARYLAND</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23" t="str">
+            <v>ME</v>
+          </cell>
+          <cell r="B23" t="str">
+            <v>MAINE</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24" t="str">
+            <v>MI</v>
+          </cell>
+          <cell r="B24" t="str">
+            <v>MICHIGAN</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25" t="str">
+            <v>MN</v>
+          </cell>
+          <cell r="B25" t="str">
+            <v>MINNESOTA</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26" t="str">
+            <v>MO</v>
+          </cell>
+          <cell r="B26" t="str">
+            <v>MISSOURI</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="A27" t="str">
+            <v>MS</v>
+          </cell>
+          <cell r="B27" t="str">
+            <v>MISSISSIPPI</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="A28" t="str">
+            <v>MT</v>
+          </cell>
+          <cell r="B28" t="str">
+            <v>MONTANA</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="A29" t="str">
+            <v>NC</v>
+          </cell>
+          <cell r="B29" t="str">
+            <v>NORTH CAROLINA</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="A30" t="str">
+            <v>ND</v>
+          </cell>
+          <cell r="B30" t="str">
+            <v>NORTH DAKOTA</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="A31" t="str">
+            <v>NE</v>
+          </cell>
+          <cell r="B31" t="str">
+            <v>NEBRASKA</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="A32" t="str">
+            <v>NH</v>
+          </cell>
+          <cell r="B32" t="str">
+            <v>NEW HAMPSHIRE</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="A33" t="str">
+            <v>NJ</v>
+          </cell>
+          <cell r="B33" t="str">
+            <v>NEW JERSEY</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="A34" t="str">
+            <v>NM</v>
+          </cell>
+          <cell r="B34" t="str">
+            <v>NEW MEXICO</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="A35" t="str">
+            <v>NV</v>
+          </cell>
+          <cell r="B35" t="str">
+            <v>NEVADA</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="A36" t="str">
+            <v>NY</v>
+          </cell>
+          <cell r="B36" t="str">
+            <v>NEW YORK</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="A37" t="str">
+            <v>OH</v>
+          </cell>
+          <cell r="B37" t="str">
+            <v>OHIO</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="A38" t="str">
+            <v>OK</v>
+          </cell>
+          <cell r="B38" t="str">
+            <v>OKLAHOMA</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="A39" t="str">
+            <v>OR</v>
+          </cell>
+          <cell r="B39" t="str">
+            <v>OREGON</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="A40" t="str">
+            <v>PA</v>
+          </cell>
+          <cell r="B40" t="str">
+            <v>PENNSYLVANIA</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="A41" t="str">
+            <v>PR</v>
+          </cell>
+          <cell r="B41" t="str">
+            <v>PUERTO RICO</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="A42" t="str">
+            <v>RI</v>
+          </cell>
+          <cell r="B42" t="str">
+            <v>RHODE ISLAND</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="A43" t="str">
+            <v>SC</v>
+          </cell>
+          <cell r="B43" t="str">
+            <v>SOUTH CAROLINA</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="A44" t="str">
+            <v>SD</v>
+          </cell>
+          <cell r="B44" t="str">
+            <v>SOUTH DAKOTA</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="A45" t="str">
+            <v>TN</v>
+          </cell>
+          <cell r="B45" t="str">
+            <v>TENNESSEE</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="A46" t="str">
+            <v>TX</v>
+          </cell>
+          <cell r="B46" t="str">
+            <v>TEXAS</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="A47" t="str">
+            <v>UT</v>
+          </cell>
+          <cell r="B47" t="str">
+            <v>UTAH</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="A48" t="str">
+            <v>VA</v>
+          </cell>
+          <cell r="B48" t="str">
+            <v>VIRGINIA</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="A49" t="str">
+            <v>VT</v>
+          </cell>
+          <cell r="B49" t="str">
+            <v>VERMONT</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="A50" t="str">
+            <v>WA</v>
+          </cell>
+          <cell r="B50" t="str">
+            <v>WASHINGTON</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="A51" t="str">
+            <v>WI</v>
+          </cell>
+          <cell r="B51" t="str">
+            <v>WISCONSIN</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="A52" t="str">
+            <v>WV</v>
+          </cell>
+          <cell r="B52" t="str">
+            <v>WEST VIRGINIA</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="A53" t="str">
+            <v>WY</v>
+          </cell>
+          <cell r="B53" t="str">
+            <v>WYOMING</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="A54" t="str">
+            <v>TT</v>
+          </cell>
+          <cell r="B54" t="str">
+            <v>U.S. PACIFIC TRUST TERRITORIES AND POSSESSIONS</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="A55" t="str">
+            <v>VI</v>
+          </cell>
+          <cell r="B55" t="str">
+            <v>U.S. VIRGIN ISLANDS</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -708,9 +1014,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68004D20-8BDC-4C15-8385-2767194F5CFF}">
   <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -721,563 +1025,613 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>105</v>
+        <v>49</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="B2" t="str">
+        <f>VLOOKUP(A2,'[1]states-final'!$A:$B,2,0)</f>
+        <v>ALABAMA</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="B3" t="str">
+        <f>VLOOKUP(A3,'[1]states-final'!$A:$B,2,0)</f>
+        <v>ARKANSAS</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
+        <v>26</v>
+      </c>
+      <c r="B4" t="str">
+        <f>VLOOKUP(A4,'[1]states-final'!$A:$B,2,0)</f>
+        <v>NORTH CAROLINA</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
+        <v>38</v>
+      </c>
+      <c r="B5" t="str">
+        <f>VLOOKUP(A5,'[1]states-final'!$A:$B,2,0)</f>
+        <v>SOUTH CAROLINA</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>64</v>
-      </c>
-      <c r="B6" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="B6" t="str">
+        <f>VLOOKUP(A6,'[1]states-final'!$A:$B,2,0)</f>
+        <v>FLORIDA</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>65</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="B7" t="str">
+        <f>VLOOKUP(A7,'[1]states-final'!$A:$B,2,0)</f>
+        <v>GEORGIA</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>72</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
+        <v>16</v>
+      </c>
+      <c r="B8" t="str">
+        <f>VLOOKUP(A8,'[1]states-final'!$A:$B,2,0)</f>
+        <v>KENTUCKY</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>63</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
+        <v>7</v>
+      </c>
+      <c r="B9" t="str">
+        <f>VLOOKUP(A9,'[1]states-final'!$A:$B,2,0)</f>
+        <v>DELAWARE</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>73</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
+        <v>17</v>
+      </c>
+      <c r="B10" t="str">
+        <f>VLOOKUP(A10,'[1]states-final'!$A:$B,2,0)</f>
+        <v>LOUISIANA</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>75</v>
-      </c>
-      <c r="B11" t="s">
-        <v>11</v>
+        <v>19</v>
+      </c>
+      <c r="B11" t="str">
+        <f>VLOOKUP(A11,'[1]states-final'!$A:$B,2,0)</f>
+        <v>MARYLAND</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>80</v>
-      </c>
-      <c r="B12" t="s">
-        <v>12</v>
+        <v>24</v>
+      </c>
+      <c r="B12" t="str">
+        <f>VLOOKUP(A12,'[1]states-final'!$A:$B,2,0)</f>
+        <v>MISSISSIPPI</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>90</v>
-      </c>
-      <c r="B13" t="s">
-        <v>14</v>
+        <v>34</v>
+      </c>
+      <c r="B13" t="str">
+        <f>VLOOKUP(A13,'[1]states-final'!$A:$B,2,0)</f>
+        <v>OKLAHOMA</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>96</v>
-      </c>
-      <c r="B14" t="s">
-        <v>15</v>
+        <v>40</v>
+      </c>
+      <c r="B14" t="str">
+        <f>VLOOKUP(A14,'[1]states-final'!$A:$B,2,0)</f>
+        <v>TENNESSEE</v>
       </c>
       <c r="C14" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>97</v>
-      </c>
-      <c r="B15" t="s">
-        <v>16</v>
+        <v>41</v>
+      </c>
+      <c r="B15" t="str">
+        <f>VLOOKUP(A15,'[1]states-final'!$A:$B,2,0)</f>
+        <v>TEXAS</v>
       </c>
       <c r="C15" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>99</v>
-      </c>
-      <c r="B16" t="s">
-        <v>17</v>
+        <v>43</v>
+      </c>
+      <c r="B16" t="str">
+        <f>VLOOKUP(A16,'[1]states-final'!$A:$B,2,0)</f>
+        <v>VIRGINIA</v>
       </c>
       <c r="C16" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>103</v>
-      </c>
-      <c r="B17" t="s">
-        <v>18</v>
+        <v>47</v>
+      </c>
+      <c r="B17" t="str">
+        <f>VLOOKUP(A17,'[1]states-final'!$A:$B,2,0)</f>
+        <v>WEST VIRGINIA</v>
       </c>
       <c r="C17" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>83</v>
-      </c>
-      <c r="B18" t="s">
-        <v>21</v>
+        <v>27</v>
+      </c>
+      <c r="B18" t="str">
+        <f>VLOOKUP(A18,'[1]states-final'!$A:$B,2,0)</f>
+        <v>NORTH DAKOTA</v>
       </c>
       <c r="C18" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>95</v>
-      </c>
-      <c r="B19" t="s">
-        <v>22</v>
+        <v>39</v>
+      </c>
+      <c r="B19" t="str">
+        <f>VLOOKUP(A19,'[1]states-final'!$A:$B,2,0)</f>
+        <v>SOUTH DAKOTA</v>
       </c>
       <c r="C19" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>69</v>
-      </c>
-      <c r="B20" t="s">
-        <v>23</v>
+        <v>13</v>
+      </c>
+      <c r="B20" t="str">
+        <f>VLOOKUP(A20,'[1]states-final'!$A:$B,2,0)</f>
+        <v>ILLINOIS</v>
       </c>
       <c r="C20" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>70</v>
-      </c>
-      <c r="B21" t="s">
-        <v>24</v>
+        <v>14</v>
+      </c>
+      <c r="B21" t="str">
+        <f>VLOOKUP(A21,'[1]states-final'!$A:$B,2,0)</f>
+        <v>INDIANA</v>
       </c>
       <c r="C21" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>67</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
+        <v>11</v>
+      </c>
+      <c r="B22" t="str">
+        <f>VLOOKUP(A22,'[1]states-final'!$A:$B,2,0)</f>
+        <v>IOWA</v>
       </c>
       <c r="C22" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>71</v>
-      </c>
-      <c r="B23" t="s">
-        <v>26</v>
+        <v>15</v>
+      </c>
+      <c r="B23" t="str">
+        <f>VLOOKUP(A23,'[1]states-final'!$A:$B,2,0)</f>
+        <v>KANSAS</v>
       </c>
       <c r="C23" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>77</v>
-      </c>
-      <c r="B24" t="s">
-        <v>27</v>
+        <v>21</v>
+      </c>
+      <c r="B24" t="str">
+        <f>VLOOKUP(A24,'[1]states-final'!$A:$B,2,0)</f>
+        <v>MICHIGAN</v>
       </c>
       <c r="C24" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>78</v>
-      </c>
-      <c r="B25" t="s">
-        <v>28</v>
+        <v>22</v>
+      </c>
+      <c r="B25" t="str">
+        <f>VLOOKUP(A25,'[1]states-final'!$A:$B,2,0)</f>
+        <v>MINNESOTA</v>
       </c>
       <c r="C25" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>79</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
+      </c>
+      <c r="B26" t="str">
+        <f>VLOOKUP(A26,'[1]states-final'!$A:$B,2,0)</f>
+        <v>MISSOURI</v>
       </c>
       <c r="C26" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>84</v>
-      </c>
-      <c r="B27" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="B27" t="str">
+        <f>VLOOKUP(A27,'[1]states-final'!$A:$B,2,0)</f>
+        <v>NEBRASKA</v>
       </c>
       <c r="C27" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>89</v>
-      </c>
-      <c r="B28" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="B28" t="str">
+        <f>VLOOKUP(A28,'[1]states-final'!$A:$B,2,0)</f>
+        <v>OHIO</v>
       </c>
       <c r="C28" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>102</v>
-      </c>
-      <c r="B29" t="s">
-        <v>31</v>
+        <v>46</v>
+      </c>
+      <c r="B29" t="str">
+        <f>VLOOKUP(A29,'[1]states-final'!$A:$B,2,0)</f>
+        <v>WISCONSIN</v>
       </c>
       <c r="C29" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>106</v>
-      </c>
-      <c r="B30" t="s">
-        <v>32</v>
+        <v>52</v>
+      </c>
+      <c r="B30" t="str">
+        <f>VLOOKUP(A30,'[1]states-final'!$A:$B,2,0)</f>
+        <v>NEW YORK</v>
       </c>
       <c r="C30" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>92</v>
-      </c>
-      <c r="B31" t="s">
-        <v>34</v>
+        <v>36</v>
+      </c>
+      <c r="B31" t="str">
+        <f>VLOOKUP(A31,'[1]states-final'!$A:$B,2,0)</f>
+        <v>PENNSYLVANIA</v>
       </c>
       <c r="C31" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>86</v>
-      </c>
-      <c r="B32" t="s">
-        <v>35</v>
+        <v>30</v>
+      </c>
+      <c r="B32" t="str">
+        <f>VLOOKUP(A32,'[1]states-final'!$A:$B,2,0)</f>
+        <v>NEW JERSEY</v>
       </c>
       <c r="C32" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>74</v>
-      </c>
-      <c r="B33" t="s">
-        <v>36</v>
+        <v>18</v>
+      </c>
+      <c r="B33" t="str">
+        <f>VLOOKUP(A33,'[1]states-final'!$A:$B,2,0)</f>
+        <v>MASSACHUSETTS</v>
       </c>
       <c r="C33" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>62</v>
-      </c>
-      <c r="B34" t="s">
-        <v>37</v>
+        <v>6</v>
+      </c>
+      <c r="B34" t="str">
+        <f>VLOOKUP(A34,'[1]states-final'!$A:$B,2,0)</f>
+        <v>CONNECTICUT</v>
       </c>
       <c r="C34" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>85</v>
-      </c>
-      <c r="B35" t="s">
-        <v>38</v>
+        <v>29</v>
+      </c>
+      <c r="B35" t="str">
+        <f>VLOOKUP(A35,'[1]states-final'!$A:$B,2,0)</f>
+        <v>NEW HAMPSHIRE</v>
       </c>
       <c r="C35" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>76</v>
-      </c>
-      <c r="B36" t="s">
-        <v>39</v>
+        <v>20</v>
+      </c>
+      <c r="B36" t="str">
+        <f>VLOOKUP(A36,'[1]states-final'!$A:$B,2,0)</f>
+        <v>MAINE</v>
       </c>
       <c r="C36" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>93</v>
-      </c>
-      <c r="B37" t="s">
-        <v>40</v>
+        <v>37</v>
+      </c>
+      <c r="B37" t="str">
+        <f>VLOOKUP(A37,'[1]states-final'!$A:$B,2,0)</f>
+        <v>RHODE ISLAND</v>
       </c>
       <c r="C37" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>100</v>
-      </c>
-      <c r="B38" t="s">
-        <v>41</v>
+        <v>44</v>
+      </c>
+      <c r="B38" t="str">
+        <f>VLOOKUP(A38,'[1]states-final'!$A:$B,2,0)</f>
+        <v>VERMONT</v>
       </c>
       <c r="C38" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>59</v>
-      </c>
-      <c r="B39" t="s">
-        <v>42</v>
+        <v>3</v>
+      </c>
+      <c r="B39" t="str">
+        <f>VLOOKUP(A39,'[1]states-final'!$A:$B,2,0)</f>
+        <v>ARIZONA</v>
       </c>
       <c r="C39" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>60</v>
-      </c>
-      <c r="B40" t="s">
-        <v>43</v>
+        <v>4</v>
+      </c>
+      <c r="B40" t="str">
+        <f>VLOOKUP(A40,'[1]states-final'!$A:$B,2,0)</f>
+        <v>CALIFORNIA</v>
       </c>
       <c r="C40" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>61</v>
-      </c>
-      <c r="B41" t="s">
-        <v>44</v>
+        <v>5</v>
+      </c>
+      <c r="B41" t="str">
+        <f>VLOOKUP(A41,'[1]states-final'!$A:$B,2,0)</f>
+        <v>COLORADO</v>
       </c>
       <c r="C41" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>68</v>
-      </c>
-      <c r="B42" t="s">
-        <v>45</v>
+        <v>12</v>
+      </c>
+      <c r="B42" t="str">
+        <f>VLOOKUP(A42,'[1]states-final'!$A:$B,2,0)</f>
+        <v>IDAHO</v>
       </c>
       <c r="C42" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>81</v>
-      </c>
-      <c r="B43" t="s">
-        <v>46</v>
+        <v>25</v>
+      </c>
+      <c r="B43" t="str">
+        <f>VLOOKUP(A43,'[1]states-final'!$A:$B,2,0)</f>
+        <v>MONTANA</v>
       </c>
       <c r="C43" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>87</v>
-      </c>
-      <c r="B44" t="s">
-        <v>47</v>
+        <v>31</v>
+      </c>
+      <c r="B44" t="str">
+        <f>VLOOKUP(A44,'[1]states-final'!$A:$B,2,0)</f>
+        <v>NEW MEXICO</v>
       </c>
       <c r="C44" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>88</v>
-      </c>
-      <c r="B45" t="s">
-        <v>48</v>
+        <v>32</v>
+      </c>
+      <c r="B45" t="str">
+        <f>VLOOKUP(A45,'[1]states-final'!$A:$B,2,0)</f>
+        <v>NEVADA</v>
       </c>
       <c r="C45" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>91</v>
-      </c>
-      <c r="B46" t="s">
-        <v>49</v>
+        <v>35</v>
+      </c>
+      <c r="B46" t="str">
+        <f>VLOOKUP(A46,'[1]states-final'!$A:$B,2,0)</f>
+        <v>OREGON</v>
       </c>
       <c r="C46" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>98</v>
-      </c>
-      <c r="B47" t="s">
-        <v>50</v>
+        <v>42</v>
+      </c>
+      <c r="B47" t="str">
+        <f>VLOOKUP(A47,'[1]states-final'!$A:$B,2,0)</f>
+        <v>UTAH</v>
       </c>
       <c r="C47" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>101</v>
-      </c>
-      <c r="B48" t="s">
-        <v>51</v>
+        <v>45</v>
+      </c>
+      <c r="B48" t="str">
+        <f>VLOOKUP(A48,'[1]states-final'!$A:$B,2,0)</f>
+        <v>WASHINGTON</v>
       </c>
       <c r="C48" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>104</v>
-      </c>
-      <c r="B49" t="s">
-        <v>52</v>
+        <v>48</v>
+      </c>
+      <c r="B49" t="str">
+        <f>VLOOKUP(A49,'[1]states-final'!$A:$B,2,0)</f>
+        <v>WYOMING</v>
       </c>
       <c r="C49" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50" t="str">
+        <f>VLOOKUP(A50,'[1]states-final'!$A:$B,2,0)</f>
+        <v>ALASKA</v>
+      </c>
+      <c r="C50" t="s">
         <v>56</v>
-      </c>
-      <c r="B50" t="s">
-        <v>54</v>
-      </c>
-      <c r="C50" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>66</v>
-      </c>
-      <c r="B51" t="s">
-        <v>55</v>
+        <v>10</v>
+      </c>
+      <c r="B51" t="str">
+        <f>VLOOKUP(A51,'[1]states-final'!$A:$B,2,0)</f>
+        <v>HAWAII</v>
       </c>
       <c r="C51" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
